--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2021-07-28.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2021-07-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="34">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -88,7 +88,7 @@
     <t>Speed boat</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>1  au ponton, 1 au chenal</t>
@@ -1368,7 +1365,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3425,7 +3422,7 @@
   <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3504,7 +3501,7 @@
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -3755,7 +3752,7 @@
     <row r="17" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -4008,7 +4005,7 @@
     <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -4139,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4263,7 +4260,7 @@
     <row r="43" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -4393,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4511,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -4647,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4767,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
@@ -5020,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5">
         <v>2</v>
@@ -5157,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5279,7 +5276,7 @@
     <row r="95" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -5529,7 +5526,7 @@
     <row r="108" ht="42" customHeight="1" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C108" s="5">
         <v>3</v>
